--- a/RFP.xlsx
+++ b/RFP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TIMESHEET FOR YALE-NUS STUDENT ASSOCIATES</t>
   </si>
@@ -77,7 +77,10 @@
     <t>Claim Start Date</t>
   </si>
   <si>
-    <t>Days In The Claim Month</t>
+    <t>Claim End Date</t>
+  </si>
+  <si>
+    <t>Days in the Claim Month</t>
   </si>
   <si>
     <t>Hourly Rate</t>
@@ -601,7 +604,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -610,7 +613,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -619,16 +622,20 @@
       </c>
       <c r="B14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D10"/>
@@ -637,6 +644,7 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
